--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2453045.233012373</v>
+        <v>2452210.91059699</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1135141.849330324</v>
+        <v>1097084.844708274</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7121029.070636154</v>
+        <v>7126171.355363181</v>
       </c>
     </row>
     <row r="11">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>256.6223346687058</v>
+        <v>57.45140060867489</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
@@ -715,10 +715,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -828,13 +828,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>58.47937419506512</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>163.6300863499611</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>236.1263916331952</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>38.7948261362281</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>91.04473440253275</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11.9574589526231</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>384.8774717948093</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1344,19 +1344,19 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>153.9771234656898</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>156.6355495128296</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415078</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V11" t="n">
         <v>316.8402373905461</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
         <v>136.078945437374</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>207.6543099067269</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>138.5282564371844</v>
       </c>
       <c r="X13" t="n">
-        <v>15.39236521392049</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862732</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905467</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W14" t="n">
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>69.50892039532005</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>41.98027322210365</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415074</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1861,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967484</v>
       </c>
       <c r="V17" t="n">
         <v>316.8402373905461</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>59.64309870642131</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2.359502061319197</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
@@ -2058,16 +2058,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X19" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
         <v>192.9893998987849</v>
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F20" t="n">
         <v>387.3211661995113</v>
@@ -2098,10 +2098,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T20" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967484</v>
       </c>
       <c r="V20" t="n">
         <v>316.8402373905461</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>156.323767603766</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>33.12209635668106</v>
+        <v>88.04314577169825</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2295,16 +2295,16 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415066</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535246</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D23" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F23" t="n">
         <v>387.3211661995113</v>
@@ -2335,10 +2335,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275022</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V23" t="n">
         <v>316.8402373905461</v>
@@ -2383,7 +2383,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y23" t="n">
         <v>367.4283645950528</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.5486344510743</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>23.66936856932896</v>
       </c>
       <c r="T25" t="n">
         <v>207.6543099067269</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>206.4614817925755</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>368.2758432388703</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>187.0187749873212</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>101.6816128081186</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.8808508649719</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>388.7852277769898</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>383.1811736049973</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>392.9586963253995</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>399.5819909229766</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>387.4028842632234</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>106.6489245437074</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>68.25012805322486</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>116.6901474509674</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>202.7463022097371</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>237.2517698202123</v>
+        <v>208.642724780751</v>
       </c>
       <c r="V29" t="n">
-        <v>329.1010621140114</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>362.6845808533104</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
-        <v>379.3988468498643</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>379.6891893185181</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="30">
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>59.81323507578212</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>140.6615812274464</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18187413848163</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>167.2897334360161</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.9151346301922</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U31" t="n">
-        <v>262.7320489764644</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>253.9087706070005</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>259.0408508433417</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>218.7223065160407</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>388.8808508649719</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C32" t="n">
-        <v>388.7852277769898</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D32" t="n">
-        <v>383.1811736049973</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E32" t="n">
-        <v>392.9586963253995</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F32" t="n">
-        <v>399.5819909229766</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G32" t="n">
-        <v>387.4028842632234</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H32" t="n">
-        <v>106.6489245437074</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.25012805322486</v>
+        <v>66.5263163529376</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>116.6901474509674</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T32" t="n">
-        <v>202.7463022097371</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U32" t="n">
-        <v>237.2517698202123</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V32" t="n">
-        <v>329.1010621140114</v>
+        <v>169.3220550660537</v>
       </c>
       <c r="W32" t="n">
-        <v>362.6845808533104</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X32" t="n">
-        <v>379.3988468498643</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y32" t="n">
-        <v>379.6891893185181</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>21.2362891716736</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18187413848163</v>
+        <v>65.45806243819437</v>
       </c>
       <c r="S34" t="n">
-        <v>167.2897334360161</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.9151346301922</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U34" t="n">
-        <v>262.7320489764644</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V34" t="n">
-        <v>253.9087706070005</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W34" t="n">
-        <v>259.0408508433417</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X34" t="n">
-        <v>213.946898197019</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.2502246222502</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>388.8808508649719</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C35" t="n">
-        <v>388.7852277769898</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D35" t="n">
-        <v>199.2688027530183</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E35" t="n">
-        <v>392.9586963253995</v>
+        <v>233.1796892774419</v>
       </c>
       <c r="F35" t="n">
-        <v>399.5819909229766</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G35" t="n">
-        <v>387.4028842632234</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H35" t="n">
-        <v>290.5612953956864</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I35" t="n">
-        <v>68.25012805322486</v>
+        <v>66.5263163529376</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>116.6901474509674</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T35" t="n">
-        <v>202.7463022097371</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U35" t="n">
-        <v>237.2517698202123</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V35" t="n">
-        <v>329.1010621140114</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W35" t="n">
-        <v>362.6845808533104</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X35" t="n">
-        <v>379.3988468498643</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y35" t="n">
-        <v>379.6891893185181</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>87.98921050108326</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>140.6615812274464</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18187413848163</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>167.2897334360161</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T37" t="n">
-        <v>219.9151346301922</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U37" t="n">
-        <v>262.7320489764644</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V37" t="n">
-        <v>253.9087706070005</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W37" t="n">
-        <v>259.0408508433417</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X37" t="n">
-        <v>218.7223065160407</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y37" t="n">
-        <v>59.81323507578212</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>388.8808508649719</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C38" t="n">
-        <v>388.7852277769898</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D38" t="n">
-        <v>383.1811736049973</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E38" t="n">
-        <v>392.9586963253995</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F38" t="n">
-        <v>215.6696200709976</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G38" t="n">
-        <v>387.4028842632234</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H38" t="n">
-        <v>290.5612953956864</v>
+        <v>130.7822883477288</v>
       </c>
       <c r="I38" t="n">
-        <v>68.25012805322486</v>
+        <v>66.5263163529376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>116.6901474509674</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T38" t="n">
-        <v>202.7463022097371</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U38" t="n">
-        <v>237.2517698202123</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V38" t="n">
-        <v>329.1010621140114</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W38" t="n">
-        <v>362.6845808533104</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X38" t="n">
-        <v>379.3988468498643</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y38" t="n">
-        <v>379.6891893185181</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C40" t="n">
-        <v>152.1443217110279</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D40" t="n">
-        <v>140.6615812274464</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>31.71615713957569</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18187413848163</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>167.2897334360161</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T40" t="n">
-        <v>219.9151346301922</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U40" t="n">
-        <v>262.7320489764644</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>253.9087706070005</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W40" t="n">
-        <v>259.0408508433417</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X40" t="n">
-        <v>126.3912198807949</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>388.8808508649719</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C41" t="n">
-        <v>388.7852277769898</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D41" t="n">
-        <v>383.1811736049973</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E41" t="n">
-        <v>392.9586963253995</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F41" t="n">
-        <v>399.5819909229766</v>
+        <v>397.8581792226893</v>
       </c>
       <c r="G41" t="n">
-        <v>271.7406414644693</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H41" t="n">
-        <v>290.5612953956864</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>23.43745675594743</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>116.6901474509674</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>202.7463022097371</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U41" t="n">
-        <v>237.2517698202123</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V41" t="n">
-        <v>329.1010621140114</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W41" t="n">
-        <v>362.6845808533104</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X41" t="n">
-        <v>379.3988468498643</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y41" t="n">
-        <v>379.6891893185181</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>168.5845923272312</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D43" t="n">
-        <v>140.6615812274464</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E43" t="n">
-        <v>142.063589977491</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.7466976276419</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G43" t="n">
-        <v>148.3397701608393</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.8732636397252</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I43" t="n">
-        <v>97.94446843384439</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18187413848163</v>
+        <v>65.45806243819437</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.09136013164153</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U43" t="n">
-        <v>143.5786224524711</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W43" t="n">
-        <v>259.0408508433417</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>205.2502246222502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>387.1570391646846</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>387.0614160767026</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>381.4573619047101</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>391.2348846251123</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>239.802983875019</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>385.6790725629361</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>288.8374836953992</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>66.5263163529376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>201.0224905094498</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>235.527958119925</v>
       </c>
       <c r="V44" t="n">
-        <v>314.0518665500859</v>
+        <v>327.3772504137241</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>360.9607691530231</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>377.675035149577</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>377.9653776182308</v>
       </c>
     </row>
     <row r="45">
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C46" t="n">
-        <v>8.888548631817493</v>
+        <v>43.19889762315728</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>218.1913229299049</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.1849589067133</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>257.3170391430544</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>203.526412921963</v>
       </c>
     </row>
   </sheetData>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>80.25049765783463</v>
+        <v>888.3313057386428</v>
       </c>
       <c r="C2" t="n">
-        <v>74.16631101150881</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D2" t="n">
-        <v>73.74278514497341</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E2" t="n">
         <v>63.44297370227418</v>
@@ -4333,25 +4333,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1250.250340018485</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
-        <v>1250.250340018485</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817053</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522213</v>
+        <v>1347.00642135623</v>
       </c>
       <c r="X2" t="n">
-        <v>339.4649771211738</v>
+        <v>946.3630235251831</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.4649771211738</v>
+        <v>946.3630235251831</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="K3" t="n">
-        <v>187.8810127971431</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="L3" t="n">
-        <v>704.7239474634683</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="M3" t="n">
-        <v>704.7239474634683</v>
+        <v>508.1659581184966</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1025.008892784822</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>1333.950654076436</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>1162.857281638153</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>1003.362636961063</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>842.4518218293823</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>675.2014307549257</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S4" t="n">
-        <v>1318.798642324783</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T4" t="n">
-        <v>1318.798642324783</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U4" t="n">
-        <v>1318.798642324783</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="V4" t="n">
-        <v>1318.798642324783</v>
+        <v>1805.456134026226</v>
       </c>
       <c r="W4" t="n">
-        <v>1318.798642324783</v>
+        <v>1746.386059081716</v>
       </c>
       <c r="X4" t="n">
-        <v>1318.798642324783</v>
+        <v>1746.386059081716</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>1521.650360470481</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>725.6257684434776</v>
+        <v>974.6830684215697</v>
       </c>
       <c r="C5" t="n">
-        <v>719.5415817971517</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D5" t="n">
-        <v>315.0776518902122</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G5" t="n">
         <v>128.1168483125289</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959273</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>1075.450954962253</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N5" t="n">
-        <v>1592.293889628578</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>1516.210242763442</v>
+        <v>1603.135651610684</v>
       </c>
       <c r="W5" t="n">
-        <v>1132.44994189861</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="X5" t="n">
-        <v>731.806544067563</v>
+        <v>1219.375350745852</v>
       </c>
       <c r="Y5" t="n">
-        <v>731.806544067563</v>
+        <v>980.8638440456551</v>
       </c>
     </row>
     <row r="6">
@@ -4646,28 +4646,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960205</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960205</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960205</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960205</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U7" t="n">
-        <v>1020.764063715567</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V7" t="n">
-        <v>746.8783186550887</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W7" t="n">
-        <v>467.8086541639631</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X7" t="n">
-        <v>229.4647920236465</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y7" t="n">
-        <v>229.4647920236465</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1285.591565793852</v>
+        <v>888.3313057386429</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.507379147526</v>
+        <v>478.2067150519129</v>
       </c>
       <c r="D8" t="n">
-        <v>875.0434492405864</v>
+        <v>477.7831891853775</v>
       </c>
       <c r="E8" t="n">
-        <v>864.7436377978871</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F8" t="n">
-        <v>847.7536297919787</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
@@ -4807,25 +4807,25 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N8" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4840,16 +4840,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>2076.176040113816</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>1692.415739248985</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.772341417937</v>
+        <v>1699.489158455042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1291.772341417937</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.8561672768225</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C10" t="n">
-        <v>484.8561672768225</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3615225997325</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4992,22 +4992,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1229.239766185221</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U10" t="n">
-        <v>946.441618731345</v>
+        <v>1226.554487349726</v>
       </c>
       <c r="V10" t="n">
-        <v>672.5558736708668</v>
+        <v>1226.554487349726</v>
       </c>
       <c r="W10" t="n">
-        <v>672.5558736708668</v>
+        <v>1226.554487349726</v>
       </c>
       <c r="X10" t="n">
-        <v>672.5558736708668</v>
+        <v>988.2106252094095</v>
       </c>
       <c r="Y10" t="n">
-        <v>672.5558736708668</v>
+        <v>988.2106252094095</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D11" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5071,22 +5071,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5123,25 +5123,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q12" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>767.6394927281179</v>
+        <v>854.1886277891066</v>
       </c>
       <c r="C13" t="n">
-        <v>626.3430311245193</v>
+        <v>712.892166185508</v>
       </c>
       <c r="D13" t="n">
-        <v>496.6452972821141</v>
+        <v>583.1944323431029</v>
       </c>
       <c r="E13" t="n">
-        <v>365.5313929851185</v>
+        <v>452.0805280461072</v>
       </c>
       <c r="F13" t="n">
-        <v>230.6971779303946</v>
+        <v>317.2463129913834</v>
       </c>
       <c r="G13" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="H13" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5226,25 +5226,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U13" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="V13" t="n">
-        <v>1190.362885594343</v>
+        <v>1346.957742879748</v>
       </c>
       <c r="W13" t="n">
-        <v>941.0901319379022</v>
+        <v>1207.030211125017</v>
       </c>
       <c r="X13" t="n">
-        <v>925.5422882874775</v>
+        <v>1207.030211125017</v>
       </c>
       <c r="Y13" t="n">
-        <v>925.5422882874775</v>
+        <v>1012.091423348466</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5308,16 +5308,16 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V14" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X14" t="n">
         <v>3092.17704518032</v>
@@ -5363,22 +5363,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N15" t="n">
-        <v>936.2207783851894</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O15" t="n">
-        <v>1640.177868931084</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.7015972963604</v>
+        <v>842.8852678519694</v>
       </c>
       <c r="C16" t="n">
-        <v>379.7015972963604</v>
+        <v>701.5888062483708</v>
       </c>
       <c r="D16" t="n">
-        <v>250.0038634539553</v>
+        <v>571.8910724059657</v>
       </c>
       <c r="E16" t="n">
-        <v>250.0038634539553</v>
+        <v>571.8910724059657</v>
       </c>
       <c r="F16" t="n">
-        <v>250.0038634539553</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="G16" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820136</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U16" t="n">
-        <v>1434.451719820136</v>
+        <v>1446.678118879474</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.362885594343</v>
+        <v>1404.273802493511</v>
       </c>
       <c r="W16" t="n">
-        <v>941.0901319379022</v>
+        <v>1404.273802493511</v>
       </c>
       <c r="X16" t="n">
-        <v>732.5431806322705</v>
+        <v>1195.726851187879</v>
       </c>
       <c r="Y16" t="n">
-        <v>537.60439285572</v>
+        <v>1000.788063411329</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5548,19 +5548,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>284.6031562365289</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="C19" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="H19" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X19" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y19" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.61301413329</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764619</v>
       </c>
       <c r="H20" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5785,19 +5785,19 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206829</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176682</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="21">
@@ -5834,25 +5834,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>494.6659264600851</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>494.6659264600851</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.7003606771693</v>
+        <v>182.1761681670857</v>
       </c>
       <c r="C22" t="n">
         <v>93.2436976906228</v>
@@ -5910,22 +5910,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>937.361648975152</v>
+        <v>992.837456465068</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086273</v>
       </c>
       <c r="X22" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029956</v>
       </c>
       <c r="Y22" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264452</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2340.613014133291</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C23" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E23" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H23" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6025,13 +6025,13 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M24" t="n">
-        <v>93.2436976906228</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>357.7756465877518</v>
+        <v>564.1353260085991</v>
       </c>
       <c r="C25" t="n">
-        <v>357.7756465877518</v>
+        <v>564.1353260085991</v>
       </c>
       <c r="D25" t="n">
-        <v>228.0779127453467</v>
+        <v>434.437592166194</v>
       </c>
       <c r="E25" t="n">
-        <v>228.0779127453467</v>
+        <v>434.437592166194</v>
       </c>
       <c r="F25" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="G25" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6171,28 +6171,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>1832.365759683738</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820136</v>
+        <v>1622.613931495125</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200945</v>
+        <v>1369.612694875934</v>
       </c>
       <c r="V25" t="n">
-        <v>937.361648975152</v>
+        <v>1125.523860650141</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187111</v>
+        <v>1125.523860650141</v>
       </c>
       <c r="X25" t="n">
-        <v>479.5419440130794</v>
+        <v>916.976909344509</v>
       </c>
       <c r="Y25" t="n">
-        <v>479.5419440130794</v>
+        <v>722.0381215679586</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D26" t="n">
-        <v>1313.572457336103</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E26" t="n">
-        <v>899.2322418529996</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G26" t="n">
         <v>490.5039577458317</v>
@@ -6308,22 +6308,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6408,25 +6408,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>1194.186001765628</v>
       </c>
       <c r="W28" t="n">
-        <v>452.0367765229507</v>
+        <v>915.1163372745027</v>
       </c>
       <c r="X28" t="n">
-        <v>452.0367765229507</v>
+        <v>676.772475134186</v>
       </c>
       <c r="Y28" t="n">
         <v>452.0367765229507</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2241.535642630541</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>1848.823291340652</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1461.771600830554</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1064.843624744292</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>661.2254520948205</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>269.9094073844938</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
-        <v>162.1832209767085</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4544.316048722082</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4339.521804065782</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4099.873551722133</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V29" t="n">
-        <v>3767.448236455455</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W29" t="n">
-        <v>3401.100174987464</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X29" t="n">
-        <v>3017.869016553258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2634.344582898189</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6545,25 +6545,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>674.809389578345</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>674.809389578345</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>674.809389578345</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N30" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>1548.467481689963</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q30" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R30" t="n">
         <v>2139.732893541123</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>295.7435121383284</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>235.3261029708717</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
         <v>93.2436976906228</v>
@@ -6621,52 +6621,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>124.3919829286773</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>296.0100464837593</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>572.9728825966638</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>879.3026748700011</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>1177.207193097095</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>1453.833539256414</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>1676.57471533887</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>1759.168480974225</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>1691.308002046466</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>1522.328473323217</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1300.19197369676</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U31" t="n">
-        <v>1034.806065639725</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V31" t="n">
-        <v>778.3325599760884</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W31" t="n">
-        <v>516.6751348818038</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X31" t="n">
-        <v>295.7435121383284</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y31" t="n">
-        <v>295.7435121383284</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2241.535642630541</v>
+        <v>2415.117146620408</v>
       </c>
       <c r="C32" t="n">
-        <v>1848.823291340652</v>
+        <v>2024.146019270203</v>
       </c>
       <c r="D32" t="n">
-        <v>1461.771600830554</v>
+        <v>1638.835552699789</v>
       </c>
       <c r="E32" t="n">
-        <v>1064.843624744292</v>
+        <v>1243.648800553211</v>
       </c>
       <c r="F32" t="n">
-        <v>661.2254520948205</v>
+        <v>841.7718518434237</v>
       </c>
       <c r="G32" t="n">
-        <v>269.9094073844938</v>
+        <v>452.1970310727812</v>
       </c>
       <c r="H32" t="n">
-        <v>162.1832209767085</v>
+        <v>160.4419970370244</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6727,25 +6727,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4544.316048722082</v>
+        <v>4546.057272661766</v>
       </c>
       <c r="T32" t="n">
-        <v>4339.521804065782</v>
+        <v>4343.00425194515</v>
       </c>
       <c r="U32" t="n">
-        <v>4099.873551722133</v>
+        <v>4105.097223541185</v>
       </c>
       <c r="V32" t="n">
-        <v>3767.448236455455</v>
+        <v>3934.064844686586</v>
       </c>
       <c r="W32" t="n">
-        <v>3401.100174987464</v>
+        <v>3569.45800715828</v>
       </c>
       <c r="X32" t="n">
-        <v>3017.869016553258</v>
+        <v>3187.968072663757</v>
       </c>
       <c r="Y32" t="n">
-        <v>2634.344582898189</v>
+        <v>2806.184862948372</v>
       </c>
     </row>
     <row r="33">
@@ -6782,16 +6782,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>936.2207783851894</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O33" t="n">
         <v>1228.182536368609</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93.2436976906228</v>
+        <v>114.6944948337274</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>114.6944948337274</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>114.6944948337274</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>114.6944948337274</v>
       </c>
       <c r="F34" t="n">
         <v>93.2436976906228</v>
@@ -6858,52 +6858,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>124.3919829286773</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K34" t="n">
-        <v>296.0100464837593</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L34" t="n">
-        <v>572.9728825966638</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M34" t="n">
-        <v>879.3026748700011</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N34" t="n">
-        <v>1177.207193097095</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O34" t="n">
-        <v>1453.833539256414</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P34" t="n">
-        <v>1676.57471533887</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q34" t="n">
-        <v>1759.168480974225</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R34" t="n">
-        <v>1691.308002046466</v>
+        <v>1706.701814652425</v>
       </c>
       <c r="S34" t="n">
-        <v>1522.328473323217</v>
+        <v>1706.701814652425</v>
       </c>
       <c r="T34" t="n">
-        <v>1300.19197369676</v>
+        <v>1486.306538965652</v>
       </c>
       <c r="U34" t="n">
-        <v>1034.806065639725</v>
+        <v>1222.661854848301</v>
       </c>
       <c r="V34" t="n">
-        <v>778.3325599760884</v>
+        <v>967.9295731243485</v>
       </c>
       <c r="W34" t="n">
-        <v>516.6751348818038</v>
+        <v>708.0133719697481</v>
       </c>
       <c r="X34" t="n">
-        <v>300.567156905017</v>
+        <v>488.8229731659567</v>
       </c>
       <c r="Y34" t="n">
-        <v>93.2436976906228</v>
+        <v>283.2407378912466</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2241.535642630541</v>
+        <v>2255.465434148014</v>
       </c>
       <c r="C35" t="n">
-        <v>1848.823291340652</v>
+        <v>1864.494306797809</v>
       </c>
       <c r="D35" t="n">
-        <v>1647.54167239821</v>
+        <v>1479.183840227395</v>
       </c>
       <c r="E35" t="n">
-        <v>1250.613696311947</v>
+        <v>1243.648800553211</v>
       </c>
       <c r="F35" t="n">
-        <v>846.9955236624761</v>
+        <v>841.7718518434237</v>
       </c>
       <c r="G35" t="n">
-        <v>455.6794789521494</v>
+        <v>452.1970310727812</v>
       </c>
       <c r="H35" t="n">
-        <v>162.1832209767085</v>
+        <v>160.4419970370244</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4544.316048722082</v>
+        <v>4546.057272661766</v>
       </c>
       <c r="T35" t="n">
-        <v>4339.521804065782</v>
+        <v>4343.00425194515</v>
       </c>
       <c r="U35" t="n">
-        <v>4099.873551722133</v>
+        <v>4105.097223541185</v>
       </c>
       <c r="V35" t="n">
-        <v>3767.448236455455</v>
+        <v>3774.413132214191</v>
       </c>
       <c r="W35" t="n">
-        <v>3401.100174987464</v>
+        <v>3409.806294685885</v>
       </c>
       <c r="X35" t="n">
-        <v>3017.869016553258</v>
+        <v>3028.316360191362</v>
       </c>
       <c r="Y35" t="n">
-        <v>2634.344582898189</v>
+        <v>2646.533150475978</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>256.2636568806545</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>917.3518287999427</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M36" t="n">
-        <v>1760.328909494509</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N36" t="n">
-        <v>1760.328909494509</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O36" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P36" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.3261029708717</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>235.3261029708717</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
         <v>93.2436976906228</v>
@@ -7095,52 +7095,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>124.3919829286773</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K37" t="n">
-        <v>296.0100464837593</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L37" t="n">
-        <v>572.9728825966638</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M37" t="n">
-        <v>879.3026748700011</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N37" t="n">
-        <v>1177.207193097095</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O37" t="n">
-        <v>1453.833539256414</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P37" t="n">
-        <v>1676.57471533887</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q37" t="n">
-        <v>1759.168480974225</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R37" t="n">
-        <v>1691.308002046466</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="S37" t="n">
-        <v>1522.328473323217</v>
+        <v>1605.582764856935</v>
       </c>
       <c r="T37" t="n">
-        <v>1300.19197369676</v>
+        <v>1385.187489170163</v>
       </c>
       <c r="U37" t="n">
-        <v>1034.806065639725</v>
+        <v>1121.542805052812</v>
       </c>
       <c r="V37" t="n">
-        <v>778.3325599760884</v>
+        <v>866.8105233288593</v>
       </c>
       <c r="W37" t="n">
-        <v>516.6751348818038</v>
+        <v>606.8943221742588</v>
       </c>
       <c r="X37" t="n">
-        <v>295.7435121383284</v>
+        <v>387.7039233704675</v>
       </c>
       <c r="Y37" t="n">
-        <v>235.3261029708717</v>
+        <v>182.1216880957574</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2241.535642630541</v>
+        <v>2255.465434148014</v>
       </c>
       <c r="C38" t="n">
-        <v>1848.823291340652</v>
+        <v>1864.494306797809</v>
       </c>
       <c r="D38" t="n">
-        <v>1461.771600830554</v>
+        <v>1479.183840227395</v>
       </c>
       <c r="E38" t="n">
-        <v>1064.843624744292</v>
+        <v>1083.997088080817</v>
       </c>
       <c r="F38" t="n">
-        <v>846.9955236624761</v>
+        <v>682.1201393710294</v>
       </c>
       <c r="G38" t="n">
-        <v>455.6794789521494</v>
+        <v>292.5453186003868</v>
       </c>
       <c r="H38" t="n">
-        <v>162.1832209767085</v>
+        <v>160.4419970370244</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4544.316048722082</v>
+        <v>4546.057272661766</v>
       </c>
       <c r="T38" t="n">
-        <v>4339.521804065782</v>
+        <v>4343.00425194515</v>
       </c>
       <c r="U38" t="n">
-        <v>4099.873551722133</v>
+        <v>4105.097223541185</v>
       </c>
       <c r="V38" t="n">
-        <v>3767.448236455455</v>
+        <v>3774.413132214191</v>
       </c>
       <c r="W38" t="n">
-        <v>3401.100174987464</v>
+        <v>3409.806294685885</v>
       </c>
       <c r="X38" t="n">
-        <v>3017.869016553258</v>
+        <v>3028.316360191362</v>
       </c>
       <c r="Y38" t="n">
-        <v>2634.344582898189</v>
+        <v>2646.533150475978</v>
       </c>
     </row>
     <row r="39">
@@ -7262,19 +7262,19 @@
         <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>389.007236012314</v>
+        <v>277.2201291555888</v>
       </c>
       <c r="C40" t="n">
-        <v>235.3261029708717</v>
+        <v>125.2802200538306</v>
       </c>
       <c r="D40" t="n">
-        <v>93.2436976906228</v>
+        <v>125.2802200538306</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>125.2802200538306</v>
       </c>
       <c r="F40" t="n">
         <v>93.2436976906228</v>
@@ -7332,52 +7332,52 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J40" t="n">
-        <v>124.3919829286773</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K40" t="n">
-        <v>296.0100464837593</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L40" t="n">
-        <v>572.9728825966638</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M40" t="n">
-        <v>879.3026748700011</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N40" t="n">
-        <v>1177.207193097095</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O40" t="n">
-        <v>1453.833539256414</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P40" t="n">
-        <v>1676.57471533887</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q40" t="n">
-        <v>1759.168480974225</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R40" t="n">
-        <v>1691.308002046466</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="S40" t="n">
-        <v>1522.328473323217</v>
+        <v>1605.582764856935</v>
       </c>
       <c r="T40" t="n">
-        <v>1300.19197369676</v>
+        <v>1385.187489170163</v>
       </c>
       <c r="U40" t="n">
-        <v>1034.806065639725</v>
+        <v>1385.187489170163</v>
       </c>
       <c r="V40" t="n">
-        <v>778.3325599760884</v>
+        <v>1130.45520744621</v>
       </c>
       <c r="W40" t="n">
-        <v>516.6751348818038</v>
+        <v>870.5390062916094</v>
       </c>
       <c r="X40" t="n">
-        <v>389.007236012314</v>
+        <v>651.3486074878181</v>
       </c>
       <c r="Y40" t="n">
-        <v>389.007236012314</v>
+        <v>445.766372213108</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2241.535642630541</v>
+        <v>2371.593046017388</v>
       </c>
       <c r="C41" t="n">
-        <v>1848.823291340652</v>
+        <v>1980.621918667183</v>
       </c>
       <c r="D41" t="n">
-        <v>1461.771600830554</v>
+        <v>1595.311452096769</v>
       </c>
       <c r="E41" t="n">
-        <v>1064.843624744292</v>
+        <v>1200.124699950191</v>
       </c>
       <c r="F41" t="n">
-        <v>661.2254520948205</v>
+        <v>798.2477512404034</v>
       </c>
       <c r="G41" t="n">
-        <v>386.7399556660637</v>
+        <v>408.6729304697608</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>116.917896434004</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4544.316048722082</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4339.521804065782</v>
+        <v>4459.131863814524</v>
       </c>
       <c r="U41" t="n">
-        <v>4099.873551722133</v>
+        <v>4221.22483541056</v>
       </c>
       <c r="V41" t="n">
-        <v>3767.448236455455</v>
+        <v>3890.540744083565</v>
       </c>
       <c r="W41" t="n">
-        <v>3401.100174987464</v>
+        <v>3525.933906555259</v>
       </c>
       <c r="X41" t="n">
-        <v>3017.869016553258</v>
+        <v>3144.443972060737</v>
       </c>
       <c r="Y41" t="n">
-        <v>2634.344582898189</v>
+        <v>2762.660762345352</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>3071.501944945938</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L42" t="n">
-        <v>3732.590116865226</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M42" t="n">
-        <v>3732.590116865226</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>4100.47899204261</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>4100.47899204261</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3810.027142729345</v>
+        <v>661.4564425438475</v>
       </c>
       <c r="C43" t="n">
-        <v>3810.027142729345</v>
+        <v>509.5165334420892</v>
       </c>
       <c r="D43" t="n">
-        <v>3667.944737449096</v>
+        <v>369.1753521015245</v>
       </c>
       <c r="E43" t="n">
-        <v>3524.446161714257</v>
+        <v>369.1753521015245</v>
       </c>
       <c r="F43" t="n">
-        <v>3377.227275221689</v>
+        <v>223.6976895486409</v>
       </c>
       <c r="G43" t="n">
-        <v>3227.389123544074</v>
+        <v>223.6976895486409</v>
       </c>
       <c r="H43" t="n">
-        <v>3095.193907746372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>2996.260101247539</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3027.408386485593</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K43" t="n">
-        <v>3199.026450040675</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L43" t="n">
-        <v>3475.98928615358</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M43" t="n">
-        <v>3782.319078426917</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N43" t="n">
-        <v>4080.223596654011</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O43" t="n">
-        <v>4356.849942813329</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P43" t="n">
-        <v>4579.591118895785</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R43" t="n">
-        <v>4594.32440560338</v>
+        <v>1706.701814652425</v>
       </c>
       <c r="S43" t="n">
-        <v>4594.32440560338</v>
+        <v>1660.144885226524</v>
       </c>
       <c r="T43" t="n">
-        <v>4594.32440560338</v>
+        <v>1439.749609539751</v>
       </c>
       <c r="U43" t="n">
-        <v>4449.295494035227</v>
+        <v>1176.104925422401</v>
       </c>
       <c r="V43" t="n">
-        <v>4449.295494035227</v>
+        <v>921.372643698448</v>
       </c>
       <c r="W43" t="n">
-        <v>4187.638068940943</v>
+        <v>661.4564425438475</v>
       </c>
       <c r="X43" t="n">
-        <v>4187.638068940943</v>
+        <v>661.4564425438475</v>
       </c>
       <c r="Y43" t="n">
-        <v>3980.314609726548</v>
+        <v>661.4564425438475</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2255.465434148014</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>1864.494306797809</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899312</v>
+        <v>1479.183840227395</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1083.997088080817</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>841.7718518434237</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>452.1970310727812</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>160.4419970370244</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7675,25 +7675,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>4526.90380932524</v>
+        <v>4546.057272661766</v>
       </c>
       <c r="T44" t="n">
-        <v>4304.697325272099</v>
+        <v>4343.00425194515</v>
       </c>
       <c r="U44" t="n">
-        <v>4047.636833531609</v>
+        <v>4105.097223541185</v>
       </c>
       <c r="V44" t="n">
-        <v>3730.41272590526</v>
+        <v>3774.413132214191</v>
       </c>
       <c r="W44" t="n">
-        <v>3346.652425040428</v>
+        <v>3409.806294685885</v>
       </c>
       <c r="X44" t="n">
-        <v>2946.009027209381</v>
+        <v>3028.316360191362</v>
       </c>
       <c r="Y44" t="n">
-        <v>2545.072354157471</v>
+        <v>2646.533150475978</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>3071.501944945938</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>3071.501944945938</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>3914.479025640505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>3914.479025640505</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>4618.436116186399</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>4632.62536516851</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3306.395445751029</v>
+        <v>277.2201291555888</v>
       </c>
       <c r="C46" t="n">
-        <v>3297.417113799698</v>
+        <v>233.5848790311875</v>
       </c>
       <c r="D46" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>3297.417113799698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>126.0985565119617</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>299.423193650328</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>578.092603346517</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>886.1289692031386</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1185.740061013517</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1464.07298075612</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1688.520730421861</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="R46" t="n">
-        <v>4662.18488453114</v>
+        <v>1772.8210696405</v>
       </c>
       <c r="S46" t="n">
-        <v>4475.79311641105</v>
+        <v>1605.582764856935</v>
       </c>
       <c r="T46" t="n">
-        <v>4236.244377387751</v>
+        <v>1385.187489170163</v>
       </c>
       <c r="U46" t="n">
-        <v>4236.244377387751</v>
+        <v>1385.187489170163</v>
       </c>
       <c r="V46" t="n">
-        <v>4236.244377387751</v>
+        <v>1130.45520744621</v>
       </c>
       <c r="W46" t="n">
-        <v>3957.174712896625</v>
+        <v>870.5390062916094</v>
       </c>
       <c r="X46" t="n">
-        <v>3718.830850756309</v>
+        <v>651.3486074878181</v>
       </c>
       <c r="Y46" t="n">
-        <v>3494.095152145073</v>
+        <v>445.766372213108</v>
       </c>
     </row>
   </sheetData>
@@ -7981,19 +7981,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>535.1658287548266</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8002,7 +8002,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,16 +8060,16 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>203.4176284083942</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>528.676276151442</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>579.8150493700256</v>
@@ -8078,10 +8078,10 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
         <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>594.1598684051008</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>93.75312630912974</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>339.7024893595824</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>494.5586588013271</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
@@ -8552,7 +8552,7 @@
         <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8771,13 +8771,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8789,10 +8789,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>53.19339339374999</v>
+        <v>144.2828090848182</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>558.8606699624394</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M18" t="n">
-        <v>285.4811293141939</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9482,10 +9482,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>266.54231935717</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
@@ -9494,7 +9494,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
@@ -9503,7 +9503,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,22 +9716,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N24" t="n">
-        <v>812.0486393063214</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
@@ -9740,7 +9740,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,25 +9956,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>889.5795680239546</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P27" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10193,16 +10193,16 @@
         <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>448.5054134160184</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>234.4087459755385</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
@@ -10214,7 +10214,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10430,19 +10430,19 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>352.6623456499191</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10609,7 +10609,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
-        <v>220.4924082290918</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>75.97815626606008</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,13 +10910,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>506.3432205021228</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>536.3885161299984</v>
       </c>
       <c r="P39" t="n">
         <v>621.6393243851574</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024794</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11147,10 +11147,10 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>75.79096100447751</v>
       </c>
       <c r="N42" t="n">
-        <v>424.7983178153498</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
         <v>57.751479</v>
@@ -11159,7 +11159,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11305,7 +11305,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4504173780092</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
         <v>853.701196452193</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>68.59220973220897</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>108.2517696826919</v>
       </c>
       <c r="X13" t="n">
-        <v>191.069116578655</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>66.57002504205397</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>199.6676726614316</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>80.24039828114135</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>116.2529368549407</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>106.7614006308816</v>
+        <v>51.84035121586436</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E22" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G22" t="n">
         <v>136.078945437374</v>
@@ -24147,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>35.77513315269165</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>131.3595401432218</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>36.36515802722579</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>92.95139099201586</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>174.5973550380957</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>183.912370851979</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24736,7 +24736,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>45.84716204233396</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.5845923272312</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>92.33108663524581</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>142.063589977491</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>145.7466976276419</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>148.3397701608393</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>130.8732636397252</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>97.94446843384439</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>205.2502246222502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>183.912370851979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>158.0551953476704</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>168.5845923272312</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>152.1443217110279</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D34" t="n">
-        <v>140.6615812274464</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E34" t="n">
-        <v>142.063589977491</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F34" t="n">
-        <v>145.7466976276419</v>
+        <v>122.7865967556811</v>
       </c>
       <c r="G34" t="n">
-        <v>148.3397701608393</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H34" t="n">
-        <v>130.8732636397252</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I34" t="n">
-        <v>97.94446843384439</v>
+        <v>96.22065673355713</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>165.5659217357289</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>4.77540831902175</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>183.912370851979</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>158.0551953476704</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.5845923272312</v>
+        <v>78.87157012586071</v>
       </c>
       <c r="C37" t="n">
-        <v>152.1443217110279</v>
+        <v>150.4205100107407</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E37" t="n">
-        <v>142.063589977491</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F37" t="n">
-        <v>145.7466976276419</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G37" t="n">
-        <v>148.3397701608393</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H37" t="n">
-        <v>130.8732636397252</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I37" t="n">
-        <v>97.94446843384439</v>
+        <v>96.22065673355713</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.45806243819437</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>145.4369895464681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>183.912370851979</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>158.0551953476705</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>168.5845923272312</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>138.9377695271591</v>
       </c>
       <c r="E40" t="n">
-        <v>142.063589977491</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F40" t="n">
-        <v>145.7466976276419</v>
+        <v>112.306728787779</v>
       </c>
       <c r="G40" t="n">
-        <v>148.3397701608393</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H40" t="n">
-        <v>130.8732636397252</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I40" t="n">
-        <v>97.94446843384439</v>
+        <v>96.22065673355713</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>65.45806243819437</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>92.33108663524582</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>205.2502246222502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>115.6622427987542</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>68.25012805322486</v>
+        <v>43.08885959699018</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>114.9663357506802</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>166.860780626944</v>
       </c>
       <c r="C43" t="n">
-        <v>152.1443217110279</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.22065673355713</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>167.2897334360161</v>
+        <v>119.4745616040873</v>
       </c>
       <c r="T43" t="n">
-        <v>219.9151346301922</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>119.1534265239933</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>253.9087706070005</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>218.7223065160407</v>
+        <v>216.9984948157535</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>203.526412921963</v>
       </c>
     </row>
     <row r="44">
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>158.0551953476704</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>32.28731256679816</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.4938900820832</v>
+        <v>107.2216123875834</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>140.3397782772037</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>144.0228859273547</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>146.615958460552</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>129.1494519394379</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>96.22065673355713</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>65.45806243819437</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>261.0082372761771</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>627166.9603600092</v>
+        <v>627166.9603600093</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>607677.6281187222</v>
+        <v>580276.584790846</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>607677.6281187221</v>
+        <v>610417.7324515098</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>607677.6281187222</v>
+        <v>610417.7324515097</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>607677.6281187222</v>
+        <v>610417.7324515098</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>607677.6281187221</v>
+        <v>610417.7324515098</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>580276.5847908459</v>
+        <v>610417.7324515097</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>553800.1363103536</v>
+        <v>553800.1363103538</v>
       </c>
       <c r="C2" t="n">
-        <v>553800.1363103536</v>
+        <v>553800.1363103538</v>
       </c>
       <c r="D2" t="n">
-        <v>553800.1363103535</v>
+        <v>553800.1363103538</v>
       </c>
       <c r="E2" t="n">
-        <v>536688.0895138683</v>
+        <v>536688.0895138695</v>
       </c>
       <c r="F2" t="n">
-        <v>536688.0895138684</v>
+        <v>536688.0895138695</v>
       </c>
       <c r="G2" t="n">
-        <v>536688.0895138687</v>
+        <v>536688.0895138693</v>
       </c>
       <c r="H2" t="n">
-        <v>536688.0895138687</v>
+        <v>536688.0895138693</v>
       </c>
       <c r="I2" t="n">
-        <v>536688.0895138682</v>
+        <v>536688.0895138701</v>
       </c>
       <c r="J2" t="n">
+        <v>492402.7348096596</v>
+      </c>
+      <c r="K2" t="n">
         <v>492402.7348096595</v>
       </c>
-      <c r="K2" t="n">
-        <v>518281.4979526536</v>
-      </c>
       <c r="L2" t="n">
-        <v>518281.4979526536</v>
+        <v>520869.3742669535</v>
       </c>
       <c r="M2" t="n">
-        <v>518281.4979526536</v>
+        <v>520869.3742669538</v>
       </c>
       <c r="N2" t="n">
-        <v>518281.4979526535</v>
+        <v>520869.3742669539</v>
       </c>
       <c r="O2" t="n">
-        <v>518281.4979526536</v>
+        <v>520869.3742669533</v>
       </c>
       <c r="P2" t="n">
-        <v>492402.7348096592</v>
+        <v>520869.3742669538</v>
       </c>
     </row>
     <row r="3">
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>13790.49360229817</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>15169.54296252798</v>
       </c>
       <c r="M3" t="n">
         <v>160358.4505006827</v>
@@ -26420,46 +26420,46 @@
         <v>193745.8212557931</v>
       </c>
       <c r="C4" t="n">
-        <v>193745.821255793</v>
+        <v>193745.8212557931</v>
       </c>
       <c r="D4" t="n">
         <v>193745.8212557931</v>
       </c>
       <c r="E4" t="n">
-        <v>89457.1405746909</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="F4" t="n">
-        <v>89457.1405746909</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="G4" t="n">
-        <v>89457.1405746909</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="H4" t="n">
-        <v>89457.1405746909</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="I4" t="n">
-        <v>89457.1405746909</v>
+        <v>89457.14057469096</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>77067.01658067512</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
-        <v>77067.01658067512</v>
+        <v>78809.00712296041</v>
       </c>
       <c r="M4" t="n">
-        <v>77067.01658067512</v>
+        <v>78809.00712296041</v>
       </c>
       <c r="N4" t="n">
-        <v>77067.01658067512</v>
+        <v>78809.00712296041</v>
       </c>
       <c r="O4" t="n">
-        <v>77067.01658067512</v>
+        <v>78809.00712296041</v>
       </c>
       <c r="P4" t="n">
-        <v>59647.11115782198</v>
+        <v>78809.00712296041</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686482</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="J5" t="n">
         <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>72314.40150318782</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
-        <v>72314.40150318782</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="M5" t="n">
-        <v>72314.40150318782</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="N5" t="n">
-        <v>72314.40150318782</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="O5" t="n">
-        <v>72314.40150318782</v>
+        <v>72459.32062901928</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487332</v>
+        <v>72459.32062901928</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119729.7400829489</v>
+        <v>119729.740082949</v>
       </c>
       <c r="C6" t="n">
-        <v>294685.249976063</v>
+        <v>294685.2499760631</v>
       </c>
       <c r="D6" t="n">
-        <v>294685.2499760629</v>
+        <v>294685.2499760631</v>
       </c>
       <c r="E6" t="n">
-        <v>158156.875881799</v>
+        <v>158106.5463323987</v>
       </c>
       <c r="F6" t="n">
-        <v>373885.7921623127</v>
+        <v>373835.4626129123</v>
       </c>
       <c r="G6" t="n">
-        <v>373885.792162313</v>
+        <v>373835.4626129121</v>
       </c>
       <c r="H6" t="n">
-        <v>373885.792162313</v>
+        <v>373835.4626129121</v>
       </c>
       <c r="I6" t="n">
-        <v>373885.7921623125</v>
+        <v>373835.4626129129</v>
       </c>
       <c r="J6" t="n">
-        <v>225295.6126010693</v>
+        <v>225115.0320084203</v>
       </c>
       <c r="K6" t="n">
-        <v>355109.5862664925</v>
+        <v>361709.8328143151</v>
       </c>
       <c r="L6" t="n">
-        <v>368900.0798687906</v>
+        <v>354334.6483699653</v>
       </c>
       <c r="M6" t="n">
-        <v>208541.6293681079</v>
+        <v>209145.7408318109</v>
       </c>
       <c r="N6" t="n">
-        <v>368900.0798687906</v>
+        <v>369504.1913324936</v>
       </c>
       <c r="O6" t="n">
-        <v>368900.0798687907</v>
+        <v>369504.191332493</v>
       </c>
       <c r="P6" t="n">
-        <v>361890.413406964</v>
+        <v>369504.1913324936</v>
       </c>
     </row>
   </sheetData>
@@ -26694,40 +26694,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M2" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N2" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O2" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="3">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>149.4966331991387</v>
+        <v>348.6675672591697</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>19.10615505383106</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>217.7995936511492</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>246.5667269783112</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>160.8009146881956</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>241.175339843109</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>144.9156891163807</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>334.381720164261</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.75949205792773</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,19 +28016,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28064,19 +28064,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>83.17612816737508</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>123.3346164665075</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="26">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>17.23811700287271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="K34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="L34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Q34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="R34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="S34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y34" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y35" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="K37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="L37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Q37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="R37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="S37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y37" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y38" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="K40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="L40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Q40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="R40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="S40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y41" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="K43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="L43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="R43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="S43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y43" t="n">
-        <v>17.23811700287271</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.96192870315997</v>
       </c>
     </row>
   </sheetData>
@@ -34701,19 +34701,19 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>400.909295520443</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>441.8756042977812</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>471.1119924130246</v>
+      </c>
+      <c r="N3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>522.0635703700256</v>
@@ -34798,10 +34798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>506.6900639491208</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>40.55973291537975</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
@@ -35272,7 +35272,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35491,13 +35491,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,10 +35509,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L13" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>91.08941569106823</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>504.6010349596356</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K16" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L16" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M18" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K19" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L19" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36202,10 +36202,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>210.7165365725546</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36214,7 +36214,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
@@ -36223,7 +36223,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K22" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L22" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,22 +36436,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N24" t="n">
-        <v>758.8552459125715</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K25" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L25" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N25" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P25" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>832.0152842855372</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P27" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>392.679630631403</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>31.46291438187324</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K31" t="n">
-        <v>173.3515793485676</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L31" t="n">
-        <v>279.7604405180854</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M31" t="n">
-        <v>309.4240325993305</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N31" t="n">
-        <v>300.9136547748427</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O31" t="n">
-        <v>279.420551676079</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P31" t="n">
-        <v>224.9910869519761</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.428046096318</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,7 +37074,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L32" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396346</v>
       </c>
       <c r="M32" t="n">
         <v>784.1601929209636</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>294.9108666499191</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>31.46291438187324</v>
+        <v>33.1867260821605</v>
       </c>
       <c r="K34" t="n">
-        <v>173.3515793485676</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L34" t="n">
-        <v>279.7604405180854</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M34" t="n">
-        <v>309.4240325993305</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N34" t="n">
-        <v>300.9136547748427</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O34" t="n">
-        <v>279.420551676079</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P34" t="n">
-        <v>224.9910869519761</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q34" t="n">
-        <v>83.428046096318</v>
+        <v>85.15185779660526</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>164.6666254444764</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>31.46291438187324</v>
+        <v>33.1867260821605</v>
       </c>
       <c r="K37" t="n">
-        <v>173.3515793485676</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L37" t="n">
-        <v>279.7604405180854</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M37" t="n">
-        <v>309.4240325993305</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N37" t="n">
-        <v>300.9136547748427</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O37" t="n">
-        <v>279.420551676079</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P37" t="n">
-        <v>224.9910869519761</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q37" t="n">
-        <v>83.428046096318</v>
+        <v>85.15185779660526</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N38" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O38" t="n">
         <v>650.1321781990958</v>
@@ -37630,13 +37630,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>448.7789367637054</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>478.6370371299984</v>
       </c>
       <c r="P39" t="n">
         <v>567.3796893823536</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>31.46291438187324</v>
+        <v>33.1867260821605</v>
       </c>
       <c r="K40" t="n">
-        <v>173.3515793485676</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L40" t="n">
-        <v>279.7604405180854</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M40" t="n">
-        <v>309.4240325993305</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N40" t="n">
-        <v>300.9136547748427</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O40" t="n">
-        <v>279.420551676079</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P40" t="n">
-        <v>224.9910869519761</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q40" t="n">
-        <v>83.428046096318</v>
+        <v>85.15185779660526</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
-        <v>719.7892927396346</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
         <v>784.1601929209636</v>
@@ -37867,10 +37867,10 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>18.22667726606008</v>
       </c>
       <c r="N42" t="n">
-        <v>371.6049244215998</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>31.46291438187324</v>
+        <v>33.1867260821605</v>
       </c>
       <c r="K43" t="n">
-        <v>173.3515793485676</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L43" t="n">
-        <v>279.7604405180854</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M43" t="n">
-        <v>309.4240325993305</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N43" t="n">
-        <v>300.9136547748427</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O43" t="n">
-        <v>279.420551676079</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P43" t="n">
-        <v>224.9910869519761</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.428046096318</v>
+        <v>85.15185779660526</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38025,7 +38025,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>784.1601929209637</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
         <v>760.7889056955737</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>14.33257472940522</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>14.22479737900053</v>
+        <v>33.1867260821605</v>
       </c>
       <c r="K46" t="n">
-        <v>156.1134623456949</v>
+        <v>175.0753910488549</v>
       </c>
       <c r="L46" t="n">
-        <v>262.5223235152127</v>
+        <v>281.4842522183727</v>
       </c>
       <c r="M46" t="n">
-        <v>292.1859155964578</v>
+        <v>311.1478442996178</v>
       </c>
       <c r="N46" t="n">
-        <v>283.67553777197</v>
+        <v>302.6374664751299</v>
       </c>
       <c r="O46" t="n">
-        <v>262.1824346732062</v>
+        <v>281.1443633763662</v>
       </c>
       <c r="P46" t="n">
-        <v>207.7529699491034</v>
+        <v>226.7148986522634</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.18992909344529</v>
+        <v>85.15185779660526</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
